--- a/xls/equipStrongCritConfig.xlsx
+++ b/xls/equipStrongCritConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="60" windowWidth="27765" windowHeight="13590" activeTab="1"/>
+    <workbookView xWindow="14880" yWindow="60" windowWidth="27765" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="@装备强化暴击" sheetId="1" r:id="rId1"/>
@@ -18,87 +18,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
+    <t>57:1;67:2;72:3;77:4;82:5;86:6;89:7;91:8;93:9;95:10;97:11;98:12;99:13;100:14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58:1;68:2;73:3;78:4;83:5;87:6;90:7;92:8;94:9;96:10;98:11;99:12;100:13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>59:1;69:2;74:3;79:4;84:5;88:6;91:7;93:8;95:9;97:10;99:11;100:12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60:1;70:2;75:3;80:4;85:5;89:6;92:7;94:8;96:9;98:10;100:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>62:1;72:2;77:3;82:4;87:5;91:6;94:7;96:8;98:9;100:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64:1;74:2;79:3;84:4;89:5;93:6;96:7;98:8;100:9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66:1;76:2;81:3;86:4;91:5;94:6;97:7;100:8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69:1;79:2;84:3;89:4;94:5;97:6;100:7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72:1;82:2;87:3;92:4;97:5;100:6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60:1;75:2;80:3;85:4;100:5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60:1;88:2;93:3;100:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55:1;90:2;100:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50:1;100:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[.!][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(viplv)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60:1;100:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化暴击:EquipStrongCritConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56:1;66:2;72:3;77:4;82:5;86:6;89:7;91:8;92:9;94:10;96:11;97:12;98:13;99:14;100:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>55:1;65:2;71:3;76:4;81:5;85:6;88:7;90:8;91:9;93:10;95:11;96:12;97:13;98:14;99:15;100:16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>56:1;66:2;72:3;77:4;82:5;86:6;89:7;91:8;92:9;94:10;96:11;97:12;98:13;99:14;100:15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57:1;67:2;72:3;77:4;82:5;86:6;89:7;91:8;93:9;95:10;97:11;98:12;99:13;100:14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58:1;68:2;73:3;78:4;83:5;87:6;90:7;92:8;94:9;96:10;98:11;99:12;100:13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>59:1;69:2;74:3;79:4;84:5;88:6;91:7;93:8;95:9;97:10;99:11;100:12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60:1;70:2;75:3;80:4;85:5;89:6;92:7;94:8;96:9;98:10;100:11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>62:1;72:2;77:3;82:4;87:5;91:6;94:7;96:8;98:9;100:10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>64:1;74:2;79:3;84:4;89:5;93:6;96:7;98:8;100:9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>66:1;76:2;81:3;86:4;91:5;94:6;97:7;100:8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>69:1;79:2;84:3;89:4;94:5;97:6;100:7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72:1;82:2;87:3;92:4;97:5;100:6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60:1;75:2;80:3;85:4;100:5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60:1;88:2;93:3;100:4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55:1;90:2;100:3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50:1;100:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id[.!][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id(viplv)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>strike[.][funcStrDict]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60:1;100:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化暴击:EquipStrongCritConfig</t>
+    <t>strike[.][funcStr]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -583,10 +583,10 @@
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
@@ -784,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
@@ -802,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
@@ -838,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
@@ -874,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3"/>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +954,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
